--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestRewardSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestRewardSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,15 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>rewardType</t>
   </si>
@@ -71,15 +78,73 @@
   <si>
     <t>exp</t>
   </si>
+  <si>
+    <t>questCode</t>
+  </si>
+  <si>
+    <t>=ISBLANK($A2)</t>
+  </si>
+  <si>
+    <t>helloWorld</t>
+  </si>
+  <si>
+    <t>weaponType</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>isTwoHanded</t>
+  </si>
+  <si>
+    <t>armorPart</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>dsd</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Gauntlet</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="64" formatCode=""/>
-  </numFmts>
-  <fonts count="58">
+  <numFmts count="0"/>
+  <fonts count="42">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -211,50 +276,6 @@
       <color rgb="FF333333"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="0"/>
-    </font>
-    <font>
       <sz val="5.0"/>
       <name val="맑은 고딕"/>
       <color theme="1"/>
@@ -345,45 +366,6 @@
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
     </font>
     <font>
@@ -392,7 +374,7 @@
       <color rgb="FF8C8C8C"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,162 +572,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
+        <fgColor rgb="FFFFEF9C"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEF9C"/>
+        <fgColor theme="1" tint="0.499980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -760,7 +603,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -769,7 +611,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -778,7 +619,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -787,7 +627,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -802,7 +641,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -817,7 +655,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -832,7 +669,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -841,7 +677,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -852,43 +687,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1040,35 +838,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="48" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1083,182 +881,128 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="20" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="29" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="37" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="30" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="38" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="10" xfId="27" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="10" xfId="31" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="47" borderId="10" xfId="35" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="48" borderId="10" xfId="39" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="49" borderId="10" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="50" borderId="10" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="51" borderId="10" xfId="24" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="52" borderId="10" xfId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="53" borderId="10" xfId="32" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="54" borderId="10" xfId="36" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="55" borderId="10" xfId="40" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="56" borderId="10" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="20" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="30" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="38" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" xfId="35" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="39" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="24" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="32" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="36" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="22" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="10" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="10" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="10" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="34" borderId="10" xfId="29" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="35" borderId="10" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="36" borderId="10" xfId="37" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="37" borderId="10" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="38" borderId="10" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="39" borderId="10" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="40" borderId="10" xfId="30" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="41" borderId="10" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="42" borderId="10" xfId="38" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="43" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="44" borderId="10" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="45" borderId="10" xfId="27" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1312,7 +1056,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="253">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2262,6 +2006,1206 @@
       <font>
         <color rgb="FF000000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2890,134 +3834,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="11.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="10.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="10.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="9.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="2" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="13.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="7" width="12.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="10.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="9.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0">
+        <v>100</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0">
+        <v>100</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
+    <row r="5" spans="1:12">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
-      <c r="A4" s="0" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
-      <c r="A5" s="0" t="s">
-        <v>14</v>
+    <row r="7" spans="1:12">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
-      <c r="A6" s="0" t="s">
-        <v>15</v>
+    <row r="8" spans="1:12">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:12">
       <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="0" t="s">
-        <v>17</v>
+      <c r="B9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:F1048576">
-    <cfRule type="expression" dxfId="129" priority="4" operator="" text="">
+  <conditionalFormatting sqref="F2:I1048572">
+    <cfRule type="expression" dxfId="245" priority="72" operator="" text="">
       <formula>AND($A2&lt;&gt;"Armor",$A2&lt;&gt;"Weapon")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="130" priority="3" operator="" text="">
+  <conditionalFormatting sqref="D2:D1048572">
+    <cfRule type="expression" dxfId="246" priority="67" operator="" text="">
       <formula>OR($A2="classChange",$A2="exp")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="131" priority="2" operator="" text="">
+  <conditionalFormatting sqref="C2:C1048572">
+    <cfRule type="expression" dxfId="247" priority="62" operator="" text="">
       <formula>OR($A2="weapon",$A2="gold",$A2="classChange",$A2="armor",$A2="exp")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H1048576">
-    <cfRule type="expression" dxfId="132" priority="1" operator="" text="">
+  <conditionalFormatting sqref="G2:H1048572">
+    <cfRule type="expression" dxfId="248" priority="57" operator="" text="">
+      <formula>$A2&lt;&gt;"armor"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K1048572">
+    <cfRule type="expression" dxfId="249" priority="52" operator="" text="">
       <formula>$A2&lt;&gt;"exp"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+  <conditionalFormatting sqref="E2:F1048572">
+    <cfRule type="expression" dxfId="250" priority="47" operator="" text="">
+      <formula>$A2&lt;&gt;"weapon"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:K1048572">
+    <cfRule type="expression" dxfId="251" priority="42" operator="" text="">
+      <formula>ISBLANK($A2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L1048572">
+    <cfRule type="expression" dxfId="252" priority="37" operator="" text="">
+      <formula>$A2&lt;&gt;"classChange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="expression" dxfId="252" priority="33" operator="" text="">
+      <formula>$A3&lt;&gt;"classChange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="expression" dxfId="252" priority="29" operator="" text="">
+      <formula>$A4&lt;&gt;"classChange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="expression" dxfId="252" priority="25" operator="" text="">
+      <formula>$A5&lt;&gt;"classChange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="expression" dxfId="252" priority="21" operator="" text="">
+      <formula>$A6&lt;&gt;"classChange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="expression" dxfId="252" priority="17" operator="" text="">
+      <formula>$A7&lt;&gt;"classChange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="252" priority="13" operator="" text="">
+      <formula>$A8&lt;&gt;"classChange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="252" priority="9" operator="" text="">
+      <formula>$A8&lt;&gt;"classChange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="252" priority="5" operator="" text="">
+      <formula>$A9&lt;&gt;"classChange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="252" priority="1" operator="" text="">
+      <formula>$A9&lt;&gt;"classChange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3:A5 A10:A1048572 A6 A7 A8 A9">
       <formula1>"armor,weapon, cosumable, gold, classChange,exp,misc"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>armor,weapon, cosumable, gold, classChange,exp,misc</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J5 J10:J1048572 E2 E3:E5 E10:E1048572 J6 E6 J7 E7 J8 E8 J9 E9">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4:F5 F10:F1048571 F6 F7 F8 F9">
+      <formula1>"Shield,Sword,Bow,Cane,BluntWeapon,Dagger"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+      <formula1>Shield,Sword,Bow,Cane,BluntWeapon,Dagger</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H2 H3:H5 H10:H1048572 H6 H7 H8 H9">
+      <formula1>"Cloth,Leather,PlateArmor,None"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>true,false</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G5 G10:G1048572 G6 G7 G8 G9">
+      <formula1>"Head, Chest, Pants, Boots,Gauntlet"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
+      <formula1>Head, Chest, Pants, Boots,Gauntlet</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestRewardSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestRewardSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>rewardType</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>empty</t>
+  </si>
+  <si>
+    <t>troubleMaker</t>
   </si>
 </sst>
 </file>
@@ -3837,7 +3840,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3968,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -4006,7 +4009,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -4044,7 +4047,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0">
         <v>0</v>
@@ -4082,7 +4085,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -4120,7 +4123,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -4158,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
